--- a/TestResult/BookingOutput.xlsx
+++ b/TestResult/BookingOutput.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dell\IdeaProjects\travelStart\TestResult\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A720C34C-B70C-4304-9BCD-B318595AA4DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A9DFF3A-EBD9-4234-9B5E-0302D3811270}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12432" xr2:uid="{5978896B-2FD8-4200-95F5-29A39BAC7885}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="58">
   <si>
     <t>TestCaseNo</t>
   </si>
@@ -60,67 +60,154 @@
     <t>Booking_01</t>
   </si>
   <si>
-    <t>ZA00105726</t>
-  </si>
-  <si>
-    <t>Failed</t>
-  </si>
-  <si>
-    <t>Booking not succeeded</t>
-  </si>
-  <si>
-    <t>0b2a6c5c776d11f29c8a02eeb706700a</t>
-  </si>
-  <si>
-    <t>21:49:32</t>
+    <t>ZA00106052</t>
+  </si>
+  <si>
+    <t>Passed</t>
+  </si>
+  <si>
+    <t>Booking completed</t>
+  </si>
+  <si>
+    <t>63bfbb77e606b53688929fe12e3bb9ce</t>
   </si>
   <si>
     <t>Booking_02</t>
   </si>
   <si>
+    <t>ZA00106053</t>
+  </si>
+  <si>
+    <t>d62a81c5fa3b2753345e717be6364b94</t>
+  </si>
+  <si>
+    <t>Booking_03</t>
+  </si>
+  <si>
+    <t>ZA00106054</t>
+  </si>
+  <si>
+    <t>ff92be52b0f9346e8fc25cba21153f68</t>
+  </si>
+  <si>
+    <t>Booking_04</t>
+  </si>
+  <si>
+    <t>ZA00106055</t>
+  </si>
+  <si>
+    <t>7244d916be68cc2775c48ecf43f0807e</t>
+  </si>
+  <si>
+    <t>Booking_05</t>
+  </si>
+  <si>
+    <t>ZA00106056</t>
+  </si>
+  <si>
+    <t>ad2b931f4a51760ecb729889fcb38051</t>
+  </si>
+  <si>
+    <t>Booking_06</t>
+  </si>
+  <si>
     <t>-</t>
   </si>
   <si>
     <t>Skipped</t>
   </si>
   <si>
+    <t>Skipped this test because desired airline: 4Z was not avaible in result</t>
+  </si>
+  <si>
+    <t>94f6a096765d704a7daa88792341bab9</t>
+  </si>
+  <si>
+    <t>Booking_07</t>
+  </si>
+  <si>
+    <t>ZA00106057</t>
+  </si>
+  <si>
+    <t>7d10a4f65ba5c945beae89fff3041e4d</t>
+  </si>
+  <si>
+    <t>17:57:53</t>
+  </si>
+  <si>
+    <t>17:57:54</t>
+  </si>
+  <si>
+    <t>17:57:55</t>
+  </si>
+  <si>
+    <t>17:57:56</t>
+  </si>
+  <si>
+    <t>Booking_08</t>
+  </si>
+  <si>
+    <t>Skipped this test because desired airline: FA was not avaible in result</t>
+  </si>
+  <si>
+    <t>9db0fb385be62ddedfcf3645825b5b0a</t>
+  </si>
+  <si>
     <t>Skipped this test case as this test case is not approved to run</t>
   </si>
   <si>
-    <t>21:53:03</t>
-  </si>
-  <si>
-    <t>Booking_03</t>
-  </si>
-  <si>
-    <t>21:53:04</t>
-  </si>
-  <si>
-    <t>Booking_04</t>
-  </si>
-  <si>
-    <t>21:53:06</t>
-  </si>
-  <si>
-    <t>Booking_05</t>
-  </si>
-  <si>
-    <t>Booking_06</t>
-  </si>
-  <si>
-    <t>21:53:07</t>
-  </si>
-  <si>
-    <t>Booking_07</t>
-  </si>
-  <si>
-    <t>21:53:08</t>
-  </si>
-  <si>
-    <t>Booking_08</t>
-  </si>
-  <si>
-    <t>Booking_09</t>
+    <t>17:33:33</t>
+  </si>
+  <si>
+    <t>17:33:35</t>
+  </si>
+  <si>
+    <t>17:33:36</t>
+  </si>
+  <si>
+    <t>17:33:40</t>
+  </si>
+  <si>
+    <t>17:33:41</t>
+  </si>
+  <si>
+    <t>17:35:51</t>
+  </si>
+  <si>
+    <t>17:35:53</t>
+  </si>
+  <si>
+    <t>17:35:54</t>
+  </si>
+  <si>
+    <t>17:59:40</t>
+  </si>
+  <si>
+    <t>17:59:41</t>
+  </si>
+  <si>
+    <t>17:59:42</t>
+  </si>
+  <si>
+    <t>17:59:43</t>
+  </si>
+  <si>
+    <t>ZA00106472</t>
+  </si>
+  <si>
+    <t>e1e763e0c5fb123be01f2ce8f93e61e1</t>
+  </si>
+  <si>
+    <t>ZA00106474</t>
+  </si>
+  <si>
+    <t>d00e5f85f1a33b975e2487ab041f7e8e</t>
+  </si>
+  <si>
+    <t>ZA00106481</t>
+  </si>
+  <si>
+    <t>c0bfef7497eefa067a5f4906ce01d9ce</t>
   </si>
 </sst>
 </file>
@@ -503,10 +590,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F84E5F12-E39D-4679-9700-19497A69F720}">
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:G32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F50" sqref="A2:F50"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -541,7 +628,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s" s="0">
         <v>7</v>
       </c>
@@ -558,167 +645,587 @@
         <v>11</v>
       </c>
       <c r="F2" t="s" s="0">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" t="s" s="0">
         <v>12</v>
       </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s" s="0">
+      <c r="B3" t="s" s="0">
         <v>13</v>
       </c>
-      <c r="B3" t="s" s="0">
-        <v>14</v>
-      </c>
       <c r="C3" t="s" s="0">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s" s="0">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E3" t="s" s="0">
         <v>14</v>
       </c>
       <c r="F3" t="s" s="0">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="B4" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="C4" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="D4" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="E4" t="s" s="0">
         <v>17</v>
       </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s" s="0">
+      <c r="F4" t="s" s="0">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" t="s" s="0">
         <v>18</v>
       </c>
-      <c r="B4" t="s" s="0">
-        <v>14</v>
-      </c>
-      <c r="C4" t="s" s="0">
-        <v>15</v>
-      </c>
-      <c r="D4" t="s" s="0">
-        <v>16</v>
-      </c>
-      <c r="E4" t="s" s="0">
-        <v>14</v>
-      </c>
-      <c r="F4" t="s" s="0">
+      <c r="B5" t="s" s="0">
         <v>19</v>
       </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s" s="0">
+      <c r="C5" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="D5" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="E5" t="s" s="0">
         <v>20</v>
       </c>
-      <c r="B5" t="s" s="0">
-        <v>14</v>
-      </c>
-      <c r="C5" t="s" s="0">
-        <v>15</v>
-      </c>
-      <c r="D5" t="s" s="0">
-        <v>16</v>
-      </c>
-      <c r="E5" t="s" s="0">
-        <v>14</v>
-      </c>
       <c r="F5" t="s" s="0">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" t="s" s="0">
         <v>21</v>
       </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s" s="0">
+      <c r="B6" t="s" s="0">
         <v>22</v>
       </c>
-      <c r="B6" t="s" s="0">
-        <v>14</v>
-      </c>
       <c r="C6" t="s" s="0">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D6" t="s" s="0">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E6" t="s" s="0">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="F6" t="s" s="0">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="7">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" t="s" s="0">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s" s="0">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s" s="0">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="E7" t="s" s="0">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="F7" t="s" s="0">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="8">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" t="s" s="0">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="C8" t="s" s="0">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D8" t="s" s="0">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E8" t="s" s="0">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="F8" t="s" s="0">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="9">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" t="s" s="0">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s" s="0">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s" s="0">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="E9" t="s" s="0">
-        <v>14</v>
+        <v>38</v>
       </c>
       <c r="F9" t="s" s="0">
-        <v>26</v>
+        <v>40</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s" s="0">
+        <v>39</v>
+      </c>
+      <c r="E10" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="F10" t="s" s="0">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="B11" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s" s="0">
+        <v>39</v>
+      </c>
+      <c r="E11" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="F11" t="s" s="0">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s" s="0">
         <v>15</v>
       </c>
-      <c r="D10" t="s" s="0">
-        <v>16</v>
-      </c>
-      <c r="E10" t="s" s="0">
-        <v>14</v>
-      </c>
-      <c r="F10" t="s" s="0">
-        <v>26</v>
+      <c r="B12" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s" s="0">
+        <v>39</v>
+      </c>
+      <c r="E12" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="F12" t="s" s="0">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="B13" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s" s="0">
+        <v>39</v>
+      </c>
+      <c r="E13" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="F13" t="s" s="0">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="B14" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="D14" t="s" s="0">
+        <v>39</v>
+      </c>
+      <c r="E14" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="F14" t="s" s="0">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="B15" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s" s="0">
+        <v>39</v>
+      </c>
+      <c r="E15" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="F15" t="s" s="0">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="B16" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s" s="0">
+        <v>39</v>
+      </c>
+      <c r="E16" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="F16" t="s" s="0">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="B17" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s" s="0">
+        <v>39</v>
+      </c>
+      <c r="E17" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="F17" t="s" s="0">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="B18" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s" s="0">
+        <v>39</v>
+      </c>
+      <c r="E18" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="F18" t="s" s="0">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="B19" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s" s="0">
+        <v>39</v>
+      </c>
+      <c r="E19" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="F19" t="s" s="0">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s" s="0">
+        <v>39</v>
+      </c>
+      <c r="E20" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="F20" t="s" s="0">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="B21" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s" s="0">
+        <v>39</v>
+      </c>
+      <c r="E21" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="F21" t="s" s="0">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s" s="0">
+        <v>39</v>
+      </c>
+      <c r="E22" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="F22" t="s" s="0">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="B23" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s" s="0">
+        <v>39</v>
+      </c>
+      <c r="E23" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="F23" t="s" s="0">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="B24" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s" s="0">
+        <v>39</v>
+      </c>
+      <c r="E24" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="F24" t="s" s="0">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="B25" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s" s="0">
+        <v>39</v>
+      </c>
+      <c r="E25" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="F25" t="s" s="0">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="B26" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s" s="0">
+        <v>39</v>
+      </c>
+      <c r="E26" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="F26" t="s" s="0">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="B27" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="C27" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="D27" t="s" s="0">
+        <v>39</v>
+      </c>
+      <c r="E27" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="F27" t="s" s="0">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="B28" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="C28" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="D28" t="s" s="0">
+        <v>39</v>
+      </c>
+      <c r="E28" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="F28" s="0"/>
+    </row>
+    <row r="29">
+      <c r="A29" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="B29" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="C29" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="D29" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="E29" t="s" s="0">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="B30" t="s" s="0">
+        <v>52</v>
+      </c>
+      <c r="C30" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="D30" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="E30" t="s" s="0">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="B31" t="s" s="0">
+        <v>54</v>
+      </c>
+      <c r="C31" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="D31" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="E31" t="s" s="0">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="B32" t="s" s="0">
+        <v>56</v>
+      </c>
+      <c r="C32" t="s" s="0">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/TestResult/BookingOutput.xlsx
+++ b/TestResult/BookingOutput.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2933" uniqueCount="630">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2948" uniqueCount="633">
   <si>
     <t>TestCaseNo</t>
   </si>
@@ -1924,6 +1924,15 @@
   </si>
   <si>
     <t>15:29:04</t>
+  </si>
+  <si>
+    <t>NG00108453</t>
+  </si>
+  <si>
+    <t>FS00108454</t>
+  </si>
+  <si>
+    <t>CT00108455</t>
   </si>
 </sst>
 </file>
@@ -2306,7 +2315,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F84E5F12-E39D-4679-9700-19497A69F720}">
-  <dimension ref="A1:G528"/>
+  <dimension ref="A1:G531"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D18" sqref="D18"/>
@@ -8220,6 +8229,7 @@
       <c r="E295" t="s" s="0">
         <v>8</v>
       </c>
+      <c r="F295" s="0"/>
     </row>
     <row r="296">
       <c r="A296" t="s" s="0">
@@ -12158,6 +12168,9 @@
       <c r="C527" t="s" s="0">
         <v>17</v>
       </c>
+      <c r="D527" t="s" s="0">
+        <v>18</v>
+      </c>
       <c r="E527" t="s" s="0">
         <v>623</v>
       </c>
@@ -12172,8 +12185,56 @@
       <c r="C528" t="s" s="0">
         <v>9</v>
       </c>
+      <c r="D528" t="s" s="0">
+        <v>18</v>
+      </c>
       <c r="E528" t="s" s="0">
         <v>8</v>
+      </c>
+    </row>
+    <row r="529">
+      <c r="A529" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="B529" t="s" s="0">
+        <v>630</v>
+      </c>
+      <c r="C529" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="D529" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="E529" t="s" s="0">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="530">
+      <c r="A530" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="B530" t="s" s="0">
+        <v>631</v>
+      </c>
+      <c r="C530" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="E530" t="s" s="0">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="531">
+      <c r="A531" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="B531" t="s" s="0">
+        <v>632</v>
+      </c>
+      <c r="C531" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="E531" t="s" s="0">
+        <v>623</v>
       </c>
     </row>
   </sheetData>

--- a/TestResult/BookingOutput.xlsx
+++ b/TestResult/BookingOutput.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2948" uniqueCount="633">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3511" uniqueCount="772">
   <si>
     <t>TestCaseNo</t>
   </si>
@@ -1933,6 +1933,423 @@
   </si>
   <si>
     <t>CT00108455</t>
+  </si>
+  <si>
+    <t>17:58:36</t>
+  </si>
+  <si>
+    <t>18:00:17</t>
+  </si>
+  <si>
+    <t>FS00108499</t>
+  </si>
+  <si>
+    <t>CT00108500</t>
+  </si>
+  <si>
+    <t>CT00108600</t>
+  </si>
+  <si>
+    <t>CT00108601</t>
+  </si>
+  <si>
+    <t>CT00108603</t>
+  </si>
+  <si>
+    <t>CT00108605</t>
+  </si>
+  <si>
+    <t>Booking not completed within 45 seconds, time took for booking is 57 seconds</t>
+  </si>
+  <si>
+    <t>Skipped this test because desired airline: 4Z was not avaible in result</t>
+  </si>
+  <si>
+    <t>CT00108606</t>
+  </si>
+  <si>
+    <t>CT00108607</t>
+  </si>
+  <si>
+    <t>CT00108608</t>
+  </si>
+  <si>
+    <t>CT00108609</t>
+  </si>
+  <si>
+    <t>CT00108611</t>
+  </si>
+  <si>
+    <t>CT00108612</t>
+  </si>
+  <si>
+    <t>CT00108613</t>
+  </si>
+  <si>
+    <t>CT00108614</t>
+  </si>
+  <si>
+    <t>CT00108615</t>
+  </si>
+  <si>
+    <t>CT00108618</t>
+  </si>
+  <si>
+    <t>CT00108619</t>
+  </si>
+  <si>
+    <t>CT00108620</t>
+  </si>
+  <si>
+    <t>ZA00108686</t>
+  </si>
+  <si>
+    <t>7c6a1edc-1942-43eb-bcbd-14269008fdc5</t>
+  </si>
+  <si>
+    <t>ZA00108692</t>
+  </si>
+  <si>
+    <t>c6c6bd6a-5b95-4636-87fb-000300bac782</t>
+  </si>
+  <si>
+    <t>ZA00108695</t>
+  </si>
+  <si>
+    <t>4ee965a2-886f-4448-a755-7288d41ffc38</t>
+  </si>
+  <si>
+    <t>CT00108721</t>
+  </si>
+  <si>
+    <t>18:28:27</t>
+  </si>
+  <si>
+    <t>18:30:02</t>
+  </si>
+  <si>
+    <t>CT00108722</t>
+  </si>
+  <si>
+    <t>CT00108723</t>
+  </si>
+  <si>
+    <t>18:35:35</t>
+  </si>
+  <si>
+    <t>18:38:59</t>
+  </si>
+  <si>
+    <t>CT00108724</t>
+  </si>
+  <si>
+    <t>ZA00108750</t>
+  </si>
+  <si>
+    <t>7be8e92f-63e4-426e-b756-a165bc016fec</t>
+  </si>
+  <si>
+    <t>ZA00108751</t>
+  </si>
+  <si>
+    <t>892a5c39-0788-40e6-9365-9fcf1d4108b9</t>
+  </si>
+  <si>
+    <t>ZA00108752</t>
+  </si>
+  <si>
+    <t>696b66d2-02f5-4940-80fd-6edff4220772</t>
+  </si>
+  <si>
+    <t>ZA00108754</t>
+  </si>
+  <si>
+    <t>04622626-8136-42e2-b204-8d655ad9d1c1</t>
+  </si>
+  <si>
+    <t>ZA12511106</t>
+  </si>
+  <si>
+    <t>eb60e03b-e48c-40ea-ae6b-29ba381997c7</t>
+  </si>
+  <si>
+    <t>ZA12511109</t>
+  </si>
+  <si>
+    <t>2db800bb-538e-43e5-83b7-82cd747d1cc1</t>
+  </si>
+  <si>
+    <t>18:03:11</t>
+  </si>
+  <si>
+    <t>18:03:13</t>
+  </si>
+  <si>
+    <t>18:03:14</t>
+  </si>
+  <si>
+    <t>18:05:53</t>
+  </si>
+  <si>
+    <t>18:05:55</t>
+  </si>
+  <si>
+    <t>18:05:56</t>
+  </si>
+  <si>
+    <t>18:06:22</t>
+  </si>
+  <si>
+    <t>18:06:23</t>
+  </si>
+  <si>
+    <t>18:06:24</t>
+  </si>
+  <si>
+    <t>18:06:25</t>
+  </si>
+  <si>
+    <t>18:08:33</t>
+  </si>
+  <si>
+    <t>18:08:34</t>
+  </si>
+  <si>
+    <t>18:08:35</t>
+  </si>
+  <si>
+    <t>18:20:32</t>
+  </si>
+  <si>
+    <t>18:20:33</t>
+  </si>
+  <si>
+    <t>18:20:34</t>
+  </si>
+  <si>
+    <t>18:25:14</t>
+  </si>
+  <si>
+    <t>18:25:16</t>
+  </si>
+  <si>
+    <t>18:25:17</t>
+  </si>
+  <si>
+    <t>18:29:59</t>
+  </si>
+  <si>
+    <t>18:30:01</t>
+  </si>
+  <si>
+    <t>NG12511257</t>
+  </si>
+  <si>
+    <t>9f78106c-76a5-4034-9131-defc5e02e91a</t>
+  </si>
+  <si>
+    <t>2d96880d-e04d-4c3b-b4ae-8d3338432994</t>
+  </si>
+  <si>
+    <t>d6a36403-b5af-4ff8-9763-1b70b9f211fb</t>
+  </si>
+  <si>
+    <t>15:39:01</t>
+  </si>
+  <si>
+    <t>15:41:30</t>
+  </si>
+  <si>
+    <t>ZA00182790</t>
+  </si>
+  <si>
+    <t>230e9046-c333-4b8f-84b9-6ca38c18a9ba</t>
+  </si>
+  <si>
+    <t>12:07:07</t>
+  </si>
+  <si>
+    <t>12:08:48</t>
+  </si>
+  <si>
+    <t>ZA00182791</t>
+  </si>
+  <si>
+    <t>fed9f411-9b03-47c1-982f-b50286c0fbd1</t>
+  </si>
+  <si>
+    <t>ZA00108930</t>
+  </si>
+  <si>
+    <t>d0b52d52-94bb-47b3-9379-70e84745e8b5</t>
+  </si>
+  <si>
+    <t>ZA00108931</t>
+  </si>
+  <si>
+    <t>02deef99-aee2-474d-ac19-0c11c036801d</t>
+  </si>
+  <si>
+    <t>ZA00108932</t>
+  </si>
+  <si>
+    <t>cb38c0a4-14ca-4eee-b247-808d2972cc86</t>
+  </si>
+  <si>
+    <t>ZA00108933</t>
+  </si>
+  <si>
+    <t>3e76e50e-30fe-4207-a8ce-dbcb0e5fb417</t>
+  </si>
+  <si>
+    <t>ZA00108934</t>
+  </si>
+  <si>
+    <t>4c0f5eab-25c1-4a9d-bb0e-d344f1e1f086</t>
+  </si>
+  <si>
+    <t>ZA00108935</t>
+  </si>
+  <si>
+    <t>63e29857-7bc3-49b9-9be3-7d0ff9010216</t>
+  </si>
+  <si>
+    <t>ZA00108937</t>
+  </si>
+  <si>
+    <t>a199e440-660e-4f11-b92a-c865d8f46418</t>
+  </si>
+  <si>
+    <t>ZA00108938</t>
+  </si>
+  <si>
+    <t>60455eb6-3b02-4b61-bf1d-c2aa33af2c96</t>
+  </si>
+  <si>
+    <t>ZA00108989</t>
+  </si>
+  <si>
+    <t>0735d28a-ef37-4596-9a3c-0e726eeb9091</t>
+  </si>
+  <si>
+    <t>ZA00108990</t>
+  </si>
+  <si>
+    <t>a53e3ac7-bcfd-4844-8cf8-c2db4aa809e1</t>
+  </si>
+  <si>
+    <t>ZA00108991</t>
+  </si>
+  <si>
+    <t>15c42ecb-22b3-40e5-8d2e-5536330e2ec1</t>
+  </si>
+  <si>
+    <t>ZA00108993</t>
+  </si>
+  <si>
+    <t>f965d5b5-9f87-4e24-9983-6459ae5f5e16</t>
+  </si>
+  <si>
+    <t>ZA00108994</t>
+  </si>
+  <si>
+    <t>0272d3b2-f3c1-4411-b577-1ab48e37bac8</t>
+  </si>
+  <si>
+    <t>ZA00108995</t>
+  </si>
+  <si>
+    <t>3c6fcfbe-6bd9-4bf1-bf9b-fa838c279876</t>
+  </si>
+  <si>
+    <t>ZA00108996</t>
+  </si>
+  <si>
+    <t>b80d8042-5ea9-49b7-ae67-c8f7cff0bae2</t>
+  </si>
+  <si>
+    <t>NG00108997</t>
+  </si>
+  <si>
+    <t>98a7d697-73ef-4bda-8dfa-aa500a6387cb</t>
+  </si>
+  <si>
+    <t>NG00108998</t>
+  </si>
+  <si>
+    <t>ed00da41-fc52-4218-bba6-97609a87ea96</t>
+  </si>
+  <si>
+    <t>NG00108999</t>
+  </si>
+  <si>
+    <t>e1122e20-6775-49bd-bed5-267a8eb49ce3</t>
+  </si>
+  <si>
+    <t>ZA00109026</t>
+  </si>
+  <si>
+    <t>dda465e5-df3b-44d0-b37f-19ebe6f1c0f6</t>
+  </si>
+  <si>
+    <t>ZA00109027</t>
+  </si>
+  <si>
+    <t>6b03f3d2-1a1e-4e0d-8856-13db7a1dd870</t>
+  </si>
+  <si>
+    <t>ZA00109028</t>
+  </si>
+  <si>
+    <t>977415f5-5eb4-4ee2-961a-b5223032b5a6</t>
+  </si>
+  <si>
+    <t>ZA00109030</t>
+  </si>
+  <si>
+    <t>9796f6df-c246-4b58-952f-40669e9b6e93</t>
+  </si>
+  <si>
+    <t>ZA00109031</t>
+  </si>
+  <si>
+    <t>d2bb1315-06dd-450c-80c2-a7fa5fe18291</t>
+  </si>
+  <si>
+    <t>ZA00109032</t>
+  </si>
+  <si>
+    <t>aa76e8cf-33da-4773-a633-6564fbbaecea</t>
+  </si>
+  <si>
+    <t>ZA00109034</t>
+  </si>
+  <si>
+    <t>cc4e268e-9a07-4dbc-a344-3b1e72a63e84</t>
+  </si>
+  <si>
+    <t>ZA00109035</t>
+  </si>
+  <si>
+    <t>2bf9298c-2218-48d9-89ea-b19092ac7155</t>
+  </si>
+  <si>
+    <t>ZA00109036</t>
+  </si>
+  <si>
+    <t>423228d3-06a4-4404-9c7f-b9ea605c4951</t>
+  </si>
+  <si>
+    <t>ZA00109037</t>
+  </si>
+  <si>
+    <t>9e6ba44a-7774-4c0c-9186-47b011b2bdd5</t>
+  </si>
+  <si>
+    <t>NG00109038</t>
+  </si>
+  <si>
+    <t>7bae454d-2839-4d5f-a64d-f8295bd2fcaf</t>
   </si>
 </sst>
 </file>
@@ -2315,7 +2732,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F84E5F12-E39D-4679-9700-19497A69F720}">
-  <dimension ref="A1:G531"/>
+  <dimension ref="A1:G636"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D18" sqref="D18"/>
@@ -8229,7 +8646,9 @@
       <c r="E295" t="s" s="0">
         <v>8</v>
       </c>
-      <c r="F295" s="0"/>
+      <c r="F295" t="s" s="0">
+        <v>633</v>
+      </c>
     </row>
     <row r="296">
       <c r="A296" t="s" s="0">
@@ -8247,6 +8666,9 @@
       <c r="E296" t="s" s="0">
         <v>8</v>
       </c>
+      <c r="F296" t="s" s="0">
+        <v>634</v>
+      </c>
     </row>
     <row r="297">
       <c r="A297" t="s" s="0">
@@ -8264,6 +8686,9 @@
       <c r="E297" t="s" s="0">
         <v>8</v>
       </c>
+      <c r="F297" t="s" s="0">
+        <v>662</v>
+      </c>
     </row>
     <row r="298">
       <c r="A298" t="s" s="0">
@@ -8281,6 +8706,9 @@
       <c r="E298" t="s" s="0">
         <v>8</v>
       </c>
+      <c r="F298" t="s" s="0">
+        <v>663</v>
+      </c>
     </row>
     <row r="299">
       <c r="A299" t="s" s="0">
@@ -8298,6 +8726,9 @@
       <c r="E299" t="s" s="0">
         <v>8</v>
       </c>
+      <c r="F299" t="s" s="0">
+        <v>666</v>
+      </c>
     </row>
     <row r="300">
       <c r="A300" t="s" s="0">
@@ -8315,6 +8746,9 @@
       <c r="E300" t="s" s="0">
         <v>8</v>
       </c>
+      <c r="F300" t="s" s="0">
+        <v>667</v>
+      </c>
     </row>
     <row r="301">
       <c r="A301" t="s" s="0">
@@ -8332,6 +8766,9 @@
       <c r="E301" t="s" s="0">
         <v>8</v>
       </c>
+      <c r="F301" t="s" s="0">
+        <v>681</v>
+      </c>
     </row>
     <row r="302">
       <c r="A302" t="s" s="0">
@@ -8349,6 +8786,9 @@
       <c r="E302" t="s" s="0">
         <v>8</v>
       </c>
+      <c r="F302" t="s" s="0">
+        <v>682</v>
+      </c>
     </row>
     <row r="303">
       <c r="A303" t="s" s="0">
@@ -8366,6 +8806,9 @@
       <c r="E303" t="s" s="0">
         <v>8</v>
       </c>
+      <c r="F303" t="s" s="0">
+        <v>683</v>
+      </c>
     </row>
     <row r="304">
       <c r="A304" t="s" s="0">
@@ -8383,6 +8826,9 @@
       <c r="E304" t="s" s="0">
         <v>8</v>
       </c>
+      <c r="F304" t="s" s="0">
+        <v>683</v>
+      </c>
     </row>
     <row r="305">
       <c r="A305" t="s" s="0">
@@ -8400,6 +8846,9 @@
       <c r="E305" t="s" s="0">
         <v>8</v>
       </c>
+      <c r="F305" t="s" s="0">
+        <v>684</v>
+      </c>
     </row>
     <row r="306">
       <c r="A306" t="s" s="0">
@@ -8417,6 +8866,9 @@
       <c r="E306" t="s" s="0">
         <v>8</v>
       </c>
+      <c r="F306" t="s" s="0">
+        <v>685</v>
+      </c>
     </row>
     <row r="307">
       <c r="A307" t="s" s="0">
@@ -8434,6 +8886,9 @@
       <c r="E307" t="s" s="0">
         <v>8</v>
       </c>
+      <c r="F307" t="s" s="0">
+        <v>686</v>
+      </c>
     </row>
     <row r="308">
       <c r="A308" t="s" s="0">
@@ -8451,6 +8906,9 @@
       <c r="E308" t="s" s="0">
         <v>8</v>
       </c>
+      <c r="F308" t="s" s="0">
+        <v>686</v>
+      </c>
     </row>
     <row r="309">
       <c r="A309" t="s" s="0">
@@ -8468,6 +8926,9 @@
       <c r="E309" t="s" s="0">
         <v>8</v>
       </c>
+      <c r="F309" t="s" s="0">
+        <v>687</v>
+      </c>
     </row>
     <row r="310">
       <c r="A310" t="s" s="0">
@@ -8485,6 +8946,9 @@
       <c r="E310" t="s" s="0">
         <v>8</v>
       </c>
+      <c r="F310" t="s" s="0">
+        <v>688</v>
+      </c>
     </row>
     <row r="311">
       <c r="A311" t="s" s="0">
@@ -8502,6 +8966,9 @@
       <c r="E311" t="s" s="0">
         <v>8</v>
       </c>
+      <c r="F311" t="s" s="0">
+        <v>689</v>
+      </c>
     </row>
     <row r="312">
       <c r="A312" t="s" s="0">
@@ -8519,6 +8986,9 @@
       <c r="E312" t="s" s="0">
         <v>8</v>
       </c>
+      <c r="F312" t="s" s="0">
+        <v>690</v>
+      </c>
     </row>
     <row r="313">
       <c r="A313" t="s" s="0">
@@ -8536,6 +9006,9 @@
       <c r="E313" t="s" s="0">
         <v>8</v>
       </c>
+      <c r="F313" t="s" s="0">
+        <v>691</v>
+      </c>
     </row>
     <row r="314">
       <c r="A314" t="s" s="0">
@@ -8553,6 +9026,9 @@
       <c r="E314" t="s" s="0">
         <v>8</v>
       </c>
+      <c r="F314" t="s" s="0">
+        <v>692</v>
+      </c>
     </row>
     <row r="315">
       <c r="A315" t="s" s="0">
@@ -8570,6 +9046,9 @@
       <c r="E315" t="s" s="0">
         <v>8</v>
       </c>
+      <c r="F315" t="s" s="0">
+        <v>693</v>
+      </c>
     </row>
     <row r="316">
       <c r="A316" t="s" s="0">
@@ -8587,6 +9066,9 @@
       <c r="E316" t="s" s="0">
         <v>312</v>
       </c>
+      <c r="F316" t="s" s="0">
+        <v>693</v>
+      </c>
     </row>
     <row r="317">
       <c r="A317" t="s" s="0">
@@ -8604,6 +9086,9 @@
       <c r="E317" t="s" s="0">
         <v>8</v>
       </c>
+      <c r="F317" t="s" s="0">
+        <v>694</v>
+      </c>
     </row>
     <row r="318">
       <c r="A318" t="s" s="0">
@@ -8621,6 +9106,9 @@
       <c r="E318" t="s" s="0">
         <v>8</v>
       </c>
+      <c r="F318" t="s" s="0">
+        <v>695</v>
+      </c>
     </row>
     <row r="319">
       <c r="A319" t="s" s="0">
@@ -8638,6 +9126,9 @@
       <c r="E319" t="s" s="0">
         <v>8</v>
       </c>
+      <c r="F319" t="s" s="0">
+        <v>696</v>
+      </c>
     </row>
     <row r="320">
       <c r="A320" t="s" s="0">
@@ -8655,6 +9146,9 @@
       <c r="E320" t="s" s="0">
         <v>8</v>
       </c>
+      <c r="F320" t="s" s="0">
+        <v>696</v>
+      </c>
     </row>
     <row r="321">
       <c r="A321" t="s" s="0">
@@ -8672,6 +9166,9 @@
       <c r="E321" t="s" s="0">
         <v>8</v>
       </c>
+      <c r="F321" t="s" s="0">
+        <v>697</v>
+      </c>
     </row>
     <row r="322">
       <c r="A322" t="s" s="0">
@@ -8689,6 +9186,9 @@
       <c r="E322" t="s" s="0">
         <v>8</v>
       </c>
+      <c r="F322" t="s" s="0">
+        <v>698</v>
+      </c>
     </row>
     <row r="323">
       <c r="A323" t="s" s="0">
@@ -8706,6 +9206,9 @@
       <c r="E323" t="s" s="0">
         <v>8</v>
       </c>
+      <c r="F323" t="s" s="0">
+        <v>699</v>
+      </c>
     </row>
     <row r="324">
       <c r="A324" t="s" s="0">
@@ -8723,6 +9226,9 @@
       <c r="E324" t="s" s="0">
         <v>8</v>
       </c>
+      <c r="F324" t="s" s="0">
+        <v>699</v>
+      </c>
     </row>
     <row r="325">
       <c r="A325" t="s" s="0">
@@ -8740,6 +9246,9 @@
       <c r="E325" t="s" s="0">
         <v>320</v>
       </c>
+      <c r="F325" t="s" s="0">
+        <v>700</v>
+      </c>
     </row>
     <row r="326">
       <c r="A326" t="s" s="0">
@@ -8757,6 +9266,9 @@
       <c r="E326" t="s" s="0">
         <v>8</v>
       </c>
+      <c r="F326" t="s" s="0">
+        <v>701</v>
+      </c>
     </row>
     <row r="327">
       <c r="A327" t="s" s="0">
@@ -8774,6 +9286,9 @@
       <c r="E327" t="s" s="0">
         <v>8</v>
       </c>
+      <c r="F327" t="s" s="0">
+        <v>701</v>
+      </c>
     </row>
     <row r="328">
       <c r="A328" t="s" s="0">
@@ -8791,6 +9306,9 @@
       <c r="E328" t="s" s="0">
         <v>8</v>
       </c>
+      <c r="F328" t="s" s="0">
+        <v>663</v>
+      </c>
     </row>
     <row r="329">
       <c r="A329" t="s" s="0">
@@ -8808,6 +9326,9 @@
       <c r="E329" t="s" s="0">
         <v>8</v>
       </c>
+      <c r="F329" t="s" s="0">
+        <v>706</v>
+      </c>
     </row>
     <row r="330">
       <c r="A330" t="s" s="0">
@@ -8825,6 +9346,9 @@
       <c r="E330" t="s" s="0">
         <v>326</v>
       </c>
+      <c r="F330" t="s" s="0">
+        <v>707</v>
+      </c>
     </row>
     <row r="331">
       <c r="A331" t="s" s="0">
@@ -8842,6 +9366,9 @@
       <c r="E331" t="s" s="0">
         <v>328</v>
       </c>
+      <c r="F331" t="s" s="0">
+        <v>710</v>
+      </c>
     </row>
     <row r="332">
       <c r="A332" t="s" s="0">
@@ -8859,6 +9386,9 @@
       <c r="E332" t="s" s="0">
         <v>330</v>
       </c>
+      <c r="F332" t="s" s="0">
+        <v>711</v>
+      </c>
     </row>
     <row r="333">
       <c r="A333" t="s" s="0">
@@ -8876,6 +9406,7 @@
       <c r="E333" t="s" s="0">
         <v>332</v>
       </c>
+      <c r="F333" s="0"/>
     </row>
     <row r="334">
       <c r="A334" t="s" s="0">
@@ -12219,6 +12750,9 @@
       <c r="C530" t="s" s="0">
         <v>17</v>
       </c>
+      <c r="D530" t="s" s="0">
+        <v>10</v>
+      </c>
       <c r="E530" t="s" s="0">
         <v>623</v>
       </c>
@@ -12233,8 +12767,1790 @@
       <c r="C531" t="s" s="0">
         <v>17</v>
       </c>
+      <c r="D531" t="s" s="0">
+        <v>10</v>
+      </c>
       <c r="E531" t="s" s="0">
         <v>623</v>
+      </c>
+    </row>
+    <row r="532">
+      <c r="A532" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="B532" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="C532" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="D532" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="E532" t="s" s="0">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="533">
+      <c r="A533" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="B533" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="C533" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="D533" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="E533" t="s" s="0">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="534">
+      <c r="A534" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="B534" t="s" s="0">
+        <v>635</v>
+      </c>
+      <c r="C534" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="D534" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="E534" t="s" s="0">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="535">
+      <c r="A535" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="B535" t="s" s="0">
+        <v>636</v>
+      </c>
+      <c r="C535" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="D535" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="E535" t="s" s="0">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="536">
+      <c r="A536" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="B536" t="s" s="0">
+        <v>637</v>
+      </c>
+      <c r="C536" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="D536" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="E536" t="s" s="0">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="537">
+      <c r="A537" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="B537" t="s" s="0">
+        <v>638</v>
+      </c>
+      <c r="C537" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="D537" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="E537" t="s" s="0">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="538">
+      <c r="A538" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="B538" t="s" s="0">
+        <v>639</v>
+      </c>
+      <c r="C538" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="D538" t="s" s="0">
+        <v>641</v>
+      </c>
+      <c r="E538" t="s" s="0">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="539">
+      <c r="A539" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="B539" t="s" s="0">
+        <v>640</v>
+      </c>
+      <c r="C539" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="D539" t="s" s="0">
+        <v>642</v>
+      </c>
+      <c r="E539" t="s" s="0">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="540">
+      <c r="A540" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="B540" t="s" s="0">
+        <v>640</v>
+      </c>
+      <c r="C540" t="s" s="0">
+        <v>92</v>
+      </c>
+      <c r="D540" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="E540" t="s" s="0">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="541">
+      <c r="A541" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="B541" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="C541" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="D541" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="E541" t="s" s="0">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="542">
+      <c r="A542" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="B542" t="s" s="0">
+        <v>643</v>
+      </c>
+      <c r="C542" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="D542" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="E542" t="s" s="0">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="543">
+      <c r="A543" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="B543" t="s" s="0">
+        <v>644</v>
+      </c>
+      <c r="C543" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="D543" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="E543" t="s" s="0">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="544">
+      <c r="A544" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="B544" t="s" s="0">
+        <v>645</v>
+      </c>
+      <c r="C544" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="D544" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="E544" t="s" s="0">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="545">
+      <c r="A545" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="B545" t="s" s="0">
+        <v>646</v>
+      </c>
+      <c r="C545" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="D545" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="E545" t="s" s="0">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="546">
+      <c r="A546" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="B546" t="s" s="0">
+        <v>647</v>
+      </c>
+      <c r="C546" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="D546" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="E546" t="s" s="0">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="547">
+      <c r="A547" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="B547" t="s" s="0">
+        <v>648</v>
+      </c>
+      <c r="C547" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="D547" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="E547" t="s" s="0">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="548">
+      <c r="A548" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="B548" t="s" s="0">
+        <v>649</v>
+      </c>
+      <c r="C548" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="D548" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="E548" t="s" s="0">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="549">
+      <c r="A549" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="B549" t="s" s="0">
+        <v>650</v>
+      </c>
+      <c r="C549" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="D549" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="E549" t="s" s="0">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="550">
+      <c r="A550" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="B550" t="s" s="0">
+        <v>651</v>
+      </c>
+      <c r="C550" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="D550" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="E550" t="s" s="0">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="551">
+      <c r="A551" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="B551" t="s" s="0">
+        <v>652</v>
+      </c>
+      <c r="C551" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="D551" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="E551" t="s" s="0">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="552">
+      <c r="A552" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="B552" t="s" s="0">
+        <v>653</v>
+      </c>
+      <c r="C552" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="D552" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="E552" t="s" s="0">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="553">
+      <c r="A553" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="B553" t="s" s="0">
+        <v>654</v>
+      </c>
+      <c r="C553" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="D553" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="E553" t="s" s="0">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="554">
+      <c r="A554" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="B554" t="s" s="0">
+        <v>655</v>
+      </c>
+      <c r="C554" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="D554" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="E554" t="s" s="0">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="555">
+      <c r="A555" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="B555" t="s" s="0">
+        <v>657</v>
+      </c>
+      <c r="C555" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="D555" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="E555" t="s" s="0">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="556">
+      <c r="A556" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="B556" t="s" s="0">
+        <v>659</v>
+      </c>
+      <c r="C556" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="D556" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="E556" t="s" s="0">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="557">
+      <c r="A557" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="B557" t="s" s="0">
+        <v>661</v>
+      </c>
+      <c r="C557" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="D557" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="E557" t="s" s="0">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="558">
+      <c r="A558" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="B558" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="C558" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="D558" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="E558" t="s" s="0">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="559">
+      <c r="A559" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="B559" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="C559" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="D559" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="E559" t="s" s="0">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="560">
+      <c r="A560" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="B560" t="s" s="0">
+        <v>664</v>
+      </c>
+      <c r="C560" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="D560" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="E560" t="s" s="0">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="561">
+      <c r="A561" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="B561" t="s" s="0">
+        <v>665</v>
+      </c>
+      <c r="C561" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="D561" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="E561" t="s" s="0">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="562">
+      <c r="A562" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="B562" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="C562" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="D562" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="E562" t="s" s="0">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="563">
+      <c r="A563" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="B563" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="C563" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="D563" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="E563" t="s" s="0">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="564">
+      <c r="A564" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="B564" t="s" s="0">
+        <v>668</v>
+      </c>
+      <c r="C564" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="D564" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="E564" t="s" s="0">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="565">
+      <c r="A565" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="B565" t="s" s="0">
+        <v>669</v>
+      </c>
+      <c r="C565" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="D565" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="E565" t="s" s="0">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="566">
+      <c r="A566" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="B566" t="s" s="0">
+        <v>671</v>
+      </c>
+      <c r="C566" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="D566" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="E566" t="s" s="0">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="567">
+      <c r="A567" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="B567" t="s" s="0">
+        <v>673</v>
+      </c>
+      <c r="C567" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="D567" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="E567" t="s" s="0">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="568">
+      <c r="A568" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="B568" t="s" s="0">
+        <v>675</v>
+      </c>
+      <c r="C568" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="D568" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="E568" t="s" s="0">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="569">
+      <c r="A569" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="B569" t="s" s="0">
+        <v>677</v>
+      </c>
+      <c r="C569" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="D569" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="E569" t="s" s="0">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="570">
+      <c r="A570" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="B570" t="s" s="0">
+        <v>679</v>
+      </c>
+      <c r="C570" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="D570" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="E570" t="s" s="0">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="571">
+      <c r="A571" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="B571" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="C571" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="D571" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="E571" t="s" s="0">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="572">
+      <c r="A572" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="B572" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="C572" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="D572" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="E572" t="s" s="0">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="573">
+      <c r="A573" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="B573" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="C573" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="D573" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="E573" t="s" s="0">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="574">
+      <c r="A574" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="B574" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="C574" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="D574" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="E574" t="s" s="0">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="575">
+      <c r="A575" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="B575" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="C575" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="D575" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="E575" t="s" s="0">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="576">
+      <c r="A576" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="B576" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="C576" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="D576" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="E576" t="s" s="0">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="577">
+      <c r="A577" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="B577" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="C577" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="D577" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="E577" t="s" s="0">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="578">
+      <c r="A578" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="B578" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="C578" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="D578" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="E578" t="s" s="0">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="579">
+      <c r="A579" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="B579" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="C579" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="D579" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="E579" t="s" s="0">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="580">
+      <c r="A580" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="B580" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="C580" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="D580" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="E580" t="s" s="0">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="581">
+      <c r="A581" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="B581" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="C581" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="D581" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="E581" t="s" s="0">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="582">
+      <c r="A582" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="B582" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="C582" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="D582" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="E582" t="s" s="0">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="583">
+      <c r="A583" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="B583" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="C583" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="D583" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="E583" t="s" s="0">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="584">
+      <c r="A584" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="B584" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="C584" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="D584" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="E584" t="s" s="0">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="585">
+      <c r="A585" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="B585" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="C585" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="D585" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="E585" t="s" s="0">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="586">
+      <c r="A586" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="B586" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="C586" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="D586" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="E586" t="s" s="0">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="587">
+      <c r="A587" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="B587" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="C587" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="D587" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="E587" t="s" s="0">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="588">
+      <c r="A588" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="B588" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="C588" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="D588" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="E588" t="s" s="0">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="589">
+      <c r="A589" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="B589" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="C589" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="D589" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="E589" t="s" s="0">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="590">
+      <c r="A590" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="B590" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="C590" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="D590" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="E590" t="s" s="0">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="591">
+      <c r="A591" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="B591" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="C591" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="D591" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="E591" t="s" s="0">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="592">
+      <c r="A592" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="B592" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="C592" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="D592" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="E592" t="s" s="0">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="593">
+      <c r="A593" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="B593" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="C593" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="D593" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="E593" t="s" s="0">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="594">
+      <c r="A594" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="B594" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="C594" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="D594" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="E594" t="s" s="0">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="595">
+      <c r="A595" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="B595" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="C595" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="D595" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="E595" t="s" s="0">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="596">
+      <c r="A596" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="B596" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="C596" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="D596" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="E596" t="s" s="0">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="597">
+      <c r="A597" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="B597" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="C597" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="D597" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="E597" t="s" s="0">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="598">
+      <c r="A598" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="B598" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="C598" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="D598" t="s" s="0">
+        <v>93</v>
+      </c>
+      <c r="E598" t="s" s="0">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="599">
+      <c r="A599" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="B599" t="s" s="0">
+        <v>702</v>
+      </c>
+      <c r="C599" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="D599" t="s" s="0">
+        <v>93</v>
+      </c>
+      <c r="E599" t="s" s="0">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="600">
+      <c r="A600" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="B600" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="C600" t="s" s="0">
+        <v>92</v>
+      </c>
+      <c r="D600" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="E600" t="s" s="0">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="601">
+      <c r="A601" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="B601" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="C601" t="s" s="0">
+        <v>92</v>
+      </c>
+      <c r="D601" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="E601" t="s" s="0">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="602">
+      <c r="A602" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="B602" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="C602" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="D602" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="E602" t="s" s="0">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="603">
+      <c r="A603" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="B603" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="C603" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="D603" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="E603" t="s" s="0">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="604">
+      <c r="A604" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="B604" t="s" s="0">
+        <v>708</v>
+      </c>
+      <c r="C604" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="D604" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="E604" t="s" s="0">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="605">
+      <c r="A605" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="B605" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="C605" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="D605" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="E605" t="s" s="0">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="606">
+      <c r="A606" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="B606" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="C606" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="D606" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="E606" t="s" s="0">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="607">
+      <c r="A607" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="B607" t="s" s="0">
+        <v>712</v>
+      </c>
+      <c r="C607" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="D607" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="E607" t="s" s="0">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="608">
+      <c r="A608" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="B608" t="s" s="0">
+        <v>714</v>
+      </c>
+      <c r="C608" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="D608" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="E608" t="s" s="0">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="609">
+      <c r="A609" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="B609" t="s" s="0">
+        <v>716</v>
+      </c>
+      <c r="C609" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="D609" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="E609" t="s" s="0">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="610">
+      <c r="A610" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="B610" t="s" s="0">
+        <v>718</v>
+      </c>
+      <c r="C610" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="D610" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="E610" t="s" s="0">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="611">
+      <c r="A611" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="B611" t="s" s="0">
+        <v>720</v>
+      </c>
+      <c r="C611" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="D611" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="E611" t="s" s="0">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="612">
+      <c r="A612" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="B612" t="s" s="0">
+        <v>722</v>
+      </c>
+      <c r="C612" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="D612" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="E612" t="s" s="0">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="613">
+      <c r="A613" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="B613" t="s" s="0">
+        <v>724</v>
+      </c>
+      <c r="C613" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="D613" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="E613" t="s" s="0">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="614">
+      <c r="A614" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="B614" t="s" s="0">
+        <v>726</v>
+      </c>
+      <c r="C614" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="D614" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="E614" t="s" s="0">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="615">
+      <c r="A615" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="B615" t="s" s="0">
+        <v>728</v>
+      </c>
+      <c r="C615" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="D615" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="E615" t="s" s="0">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="616">
+      <c r="A616" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="B616" t="s" s="0">
+        <v>730</v>
+      </c>
+      <c r="C616" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="D616" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="E616" t="s" s="0">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="617">
+      <c r="A617" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="B617" t="s" s="0">
+        <v>732</v>
+      </c>
+      <c r="C617" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="D617" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="E617" t="s" s="0">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="618">
+      <c r="A618" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="B618" t="s" s="0">
+        <v>734</v>
+      </c>
+      <c r="C618" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="D618" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="E618" t="s" s="0">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="619">
+      <c r="A619" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="B619" t="s" s="0">
+        <v>736</v>
+      </c>
+      <c r="C619" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="D619" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="E619" t="s" s="0">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="620">
+      <c r="A620" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="B620" t="s" s="0">
+        <v>738</v>
+      </c>
+      <c r="C620" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="D620" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="E620" t="s" s="0">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="621">
+      <c r="A621" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="B621" t="s" s="0">
+        <v>740</v>
+      </c>
+      <c r="C621" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="D621" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="E621" t="s" s="0">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="622">
+      <c r="A622" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="B622" t="s" s="0">
+        <v>742</v>
+      </c>
+      <c r="C622" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="D622" t="s" s="0">
+        <v>122</v>
+      </c>
+      <c r="E622" t="s" s="0">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="623">
+      <c r="A623" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="B623" t="s" s="0">
+        <v>744</v>
+      </c>
+      <c r="C623" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="D623" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="E623" t="s" s="0">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="624">
+      <c r="A624" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="B624" t="s" s="0">
+        <v>746</v>
+      </c>
+      <c r="C624" t="s" s="0">
+        <v>92</v>
+      </c>
+      <c r="D624" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="E624" t="s" s="0">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="625">
+      <c r="A625" t="s" s="0">
+        <v>30</v>
+      </c>
+      <c r="B625" t="s" s="0">
+        <v>748</v>
+      </c>
+      <c r="C625" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="D625" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="E625" t="s" s="0">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="626">
+      <c r="A626" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="B626" t="s" s="0">
+        <v>750</v>
+      </c>
+      <c r="C626" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="D626" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="E626" t="s" s="0">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="627">
+      <c r="A627" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="B627" t="s" s="0">
+        <v>752</v>
+      </c>
+      <c r="C627" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="D627" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="E627" t="s" s="0">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="628">
+      <c r="A628" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="B628" t="s" s="0">
+        <v>754</v>
+      </c>
+      <c r="C628" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="D628" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="E628" t="s" s="0">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="629">
+      <c r="A629" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="B629" t="s" s="0">
+        <v>756</v>
+      </c>
+      <c r="C629" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="D629" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="E629" t="s" s="0">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="630">
+      <c r="A630" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="B630" t="s" s="0">
+        <v>758</v>
+      </c>
+      <c r="C630" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="D630" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="E630" t="s" s="0">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="631">
+      <c r="A631" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="B631" t="s" s="0">
+        <v>760</v>
+      </c>
+      <c r="C631" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="D631" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="E631" t="s" s="0">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="632">
+      <c r="A632" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="B632" t="s" s="0">
+        <v>762</v>
+      </c>
+      <c r="C632" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="D632" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="E632" t="s" s="0">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="633">
+      <c r="A633" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="B633" t="s" s="0">
+        <v>764</v>
+      </c>
+      <c r="C633" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="D633" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="E633" t="s" s="0">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="634">
+      <c r="A634" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="B634" t="s" s="0">
+        <v>766</v>
+      </c>
+      <c r="C634" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="D634" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="E634" t="s" s="0">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="635">
+      <c r="A635" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="B635" t="s" s="0">
+        <v>768</v>
+      </c>
+      <c r="C635" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="E635" t="s" s="0">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="636">
+      <c r="A636" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="B636" t="s" s="0">
+        <v>770</v>
+      </c>
+      <c r="C636" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="E636" t="s" s="0">
+        <v>771</v>
       </c>
     </row>
   </sheetData>

--- a/TestResult/BookingOutput.xlsx
+++ b/TestResult/BookingOutput.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2948" uniqueCount="633">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3060" uniqueCount="655">
   <si>
     <t>TestCaseNo</t>
   </si>
@@ -1933,6 +1933,72 @@
   </si>
   <si>
     <t>CT00108455</t>
+  </si>
+  <si>
+    <t>17:58:36</t>
+  </si>
+  <si>
+    <t>18:00:17</t>
+  </si>
+  <si>
+    <t>FS00108499</t>
+  </si>
+  <si>
+    <t>CT00108500</t>
+  </si>
+  <si>
+    <t>CT00108600</t>
+  </si>
+  <si>
+    <t>CT00108601</t>
+  </si>
+  <si>
+    <t>CT00108603</t>
+  </si>
+  <si>
+    <t>CT00108605</t>
+  </si>
+  <si>
+    <t>Booking not completed within 45 seconds, time took for booking is 57 seconds</t>
+  </si>
+  <si>
+    <t>Skipped this test because desired airline: 4Z was not avaible in result</t>
+  </si>
+  <si>
+    <t>CT00108606</t>
+  </si>
+  <si>
+    <t>CT00108607</t>
+  </si>
+  <si>
+    <t>CT00108608</t>
+  </si>
+  <si>
+    <t>CT00108609</t>
+  </si>
+  <si>
+    <t>CT00108611</t>
+  </si>
+  <si>
+    <t>CT00108612</t>
+  </si>
+  <si>
+    <t>CT00108613</t>
+  </si>
+  <si>
+    <t>CT00108614</t>
+  </si>
+  <si>
+    <t>CT00108615</t>
+  </si>
+  <si>
+    <t>CT00108618</t>
+  </si>
+  <si>
+    <t>CT00108619</t>
+  </si>
+  <si>
+    <t>CT00108620</t>
   </si>
 </sst>
 </file>
@@ -2315,7 +2381,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F84E5F12-E39D-4679-9700-19497A69F720}">
-  <dimension ref="A1:G531"/>
+  <dimension ref="A1:G553"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D18" sqref="D18"/>
@@ -8229,7 +8295,9 @@
       <c r="E295" t="s" s="0">
         <v>8</v>
       </c>
-      <c r="F295" s="0"/>
+      <c r="F295" t="s" s="0">
+        <v>633</v>
+      </c>
     </row>
     <row r="296">
       <c r="A296" t="s" s="0">
@@ -8247,6 +8315,9 @@
       <c r="E296" t="s" s="0">
         <v>8</v>
       </c>
+      <c r="F296" t="s" s="0">
+        <v>634</v>
+      </c>
     </row>
     <row r="297">
       <c r="A297" t="s" s="0">
@@ -8264,6 +8335,7 @@
       <c r="E297" t="s" s="0">
         <v>8</v>
       </c>
+      <c r="F297" s="0"/>
     </row>
     <row r="298">
       <c r="A298" t="s" s="0">
@@ -12219,6 +12291,9 @@
       <c r="C530" t="s" s="0">
         <v>17</v>
       </c>
+      <c r="D530" t="s" s="0">
+        <v>10</v>
+      </c>
       <c r="E530" t="s" s="0">
         <v>623</v>
       </c>
@@ -12233,7 +12308,378 @@
       <c r="C531" t="s" s="0">
         <v>17</v>
       </c>
+      <c r="D531" t="s" s="0">
+        <v>10</v>
+      </c>
       <c r="E531" t="s" s="0">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="532">
+      <c r="A532" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="B532" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="C532" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="D532" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="E532" t="s" s="0">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="533">
+      <c r="A533" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="B533" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="C533" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="D533" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="E533" t="s" s="0">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="534">
+      <c r="A534" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="B534" t="s" s="0">
+        <v>635</v>
+      </c>
+      <c r="C534" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="D534" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="E534" t="s" s="0">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="535">
+      <c r="A535" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="B535" t="s" s="0">
+        <v>636</v>
+      </c>
+      <c r="C535" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="D535" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="E535" t="s" s="0">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="536">
+      <c r="A536" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="B536" t="s" s="0">
+        <v>637</v>
+      </c>
+      <c r="C536" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="D536" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="E536" t="s" s="0">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="537">
+      <c r="A537" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="B537" t="s" s="0">
+        <v>638</v>
+      </c>
+      <c r="C537" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="D537" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="E537" t="s" s="0">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="538">
+      <c r="A538" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="B538" t="s" s="0">
+        <v>639</v>
+      </c>
+      <c r="C538" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="D538" t="s" s="0">
+        <v>641</v>
+      </c>
+      <c r="E538" t="s" s="0">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="539">
+      <c r="A539" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="B539" t="s" s="0">
+        <v>640</v>
+      </c>
+      <c r="C539" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="D539" t="s" s="0">
+        <v>642</v>
+      </c>
+      <c r="E539" t="s" s="0">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="540">
+      <c r="A540" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="B540" t="s" s="0">
+        <v>640</v>
+      </c>
+      <c r="C540" t="s" s="0">
+        <v>92</v>
+      </c>
+      <c r="D540" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="E540" t="s" s="0">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="541">
+      <c r="A541" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="B541" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="C541" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="D541" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="E541" t="s" s="0">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="542">
+      <c r="A542" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="B542" t="s" s="0">
+        <v>643</v>
+      </c>
+      <c r="C542" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="D542" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="E542" t="s" s="0">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="543">
+      <c r="A543" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="B543" t="s" s="0">
+        <v>644</v>
+      </c>
+      <c r="C543" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="D543" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="E543" t="s" s="0">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="544">
+      <c r="A544" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="B544" t="s" s="0">
+        <v>645</v>
+      </c>
+      <c r="C544" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="D544" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="E544" t="s" s="0">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="545">
+      <c r="A545" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="B545" t="s" s="0">
+        <v>646</v>
+      </c>
+      <c r="C545" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="D545" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="E545" t="s" s="0">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="546">
+      <c r="A546" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="B546" t="s" s="0">
+        <v>647</v>
+      </c>
+      <c r="C546" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="D546" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="E546" t="s" s="0">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="547">
+      <c r="A547" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="B547" t="s" s="0">
+        <v>648</v>
+      </c>
+      <c r="C547" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="D547" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="E547" t="s" s="0">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="548">
+      <c r="A548" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="B548" t="s" s="0">
+        <v>649</v>
+      </c>
+      <c r="C548" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="D548" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="E548" t="s" s="0">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="549">
+      <c r="A549" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="B549" t="s" s="0">
+        <v>650</v>
+      </c>
+      <c r="C549" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="D549" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="E549" t="s" s="0">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="550">
+      <c r="A550" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="B550" t="s" s="0">
+        <v>651</v>
+      </c>
+      <c r="C550" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="D550" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="E550" t="s" s="0">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="551">
+      <c r="A551" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="B551" t="s" s="0">
+        <v>652</v>
+      </c>
+      <c r="C551" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="D551" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="E551" t="s" s="0">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="552">
+      <c r="A552" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="B552" t="s" s="0">
+        <v>653</v>
+      </c>
+      <c r="C552" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="E552" t="s" s="0">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="553">
+      <c r="A553" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="B553" t="s" s="0">
+        <v>654</v>
+      </c>
+      <c r="C553" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="E553" t="s" s="0">
         <v>623</v>
       </c>
     </row>

--- a/TestResult/BookingOutput.xlsx
+++ b/TestResult/BookingOutput.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3511" uniqueCount="772">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3641" uniqueCount="807">
   <si>
     <t>TestCaseNo</t>
   </si>
@@ -2350,6 +2350,111 @@
   </si>
   <si>
     <t>7bae454d-2839-4d5f-a64d-f8295bd2fcaf</t>
+  </si>
+  <si>
+    <t>ZA12550804</t>
+  </si>
+  <si>
+    <t>911907be-622d-4da4-a681-f717782406d6</t>
+  </si>
+  <si>
+    <t>ZA12550817</t>
+  </si>
+  <si>
+    <t>88d3f0cf-8835-4056-94b7-aab8a8cf9cc6</t>
+  </si>
+  <si>
+    <t>ZA12550830</t>
+  </si>
+  <si>
+    <t>a075fc87-fe78-4109-a502-a8e86c786ada</t>
+  </si>
+  <si>
+    <t>ZA12550838</t>
+  </si>
+  <si>
+    <t>76a37c8c-f4cf-46bf-bb6f-6e6c61789288</t>
+  </si>
+  <si>
+    <t>NG12550844</t>
+  </si>
+  <si>
+    <t>3e3faf3f-595f-4501-ae96-b942f0ecd8d2</t>
+  </si>
+  <si>
+    <t>18:51:38</t>
+  </si>
+  <si>
+    <t>18:51:39</t>
+  </si>
+  <si>
+    <t>18:51:40</t>
+  </si>
+  <si>
+    <t>NG12550889</t>
+  </si>
+  <si>
+    <t>28cc9b50-b41e-427d-9df3-5b3e23008243</t>
+  </si>
+  <si>
+    <t>18:24:49</t>
+  </si>
+  <si>
+    <t>18:24:51</t>
+  </si>
+  <si>
+    <t>18:24:52</t>
+  </si>
+  <si>
+    <t>18:24:53</t>
+  </si>
+  <si>
+    <t>ZA12557861</t>
+  </si>
+  <si>
+    <t>dfe1ff76-27ad-4294-9019-7d191438f33e</t>
+  </si>
+  <si>
+    <t>ZA12557877</t>
+  </si>
+  <si>
+    <t>42d2abb1-ce91-4f1a-86fa-7c348d7b84fa</t>
+  </si>
+  <si>
+    <t>ZA12557885</t>
+  </si>
+  <si>
+    <t>489ccab0-b335-4f94-afe0-40b5dbe81a30</t>
+  </si>
+  <si>
+    <t>NG12557910</t>
+  </si>
+  <si>
+    <t>6c47f2df-1089-43ad-b0eb-c2b27511eb41</t>
+  </si>
+  <si>
+    <t>NG12557916</t>
+  </si>
+  <si>
+    <t>e09b1d56-3307-4bf5-a12e-0973f1a62074</t>
+  </si>
+  <si>
+    <t>NG12557921</t>
+  </si>
+  <si>
+    <t>60193234-c143-4885-a642-ce17af7377a6</t>
+  </si>
+  <si>
+    <t>ZA00182878</t>
+  </si>
+  <si>
+    <t>12db59c9-ef07-4774-adfa-3f59ea47d040</t>
+  </si>
+  <si>
+    <t>ZA00182879</t>
+  </si>
+  <si>
+    <t>54ce1b25-4390-427a-b9c9-354a7cff377e</t>
   </si>
 </sst>
 </file>
@@ -2732,7 +2837,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F84E5F12-E39D-4679-9700-19497A69F720}">
-  <dimension ref="A1:G636"/>
+  <dimension ref="A1:G660"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D18" sqref="D18"/>
@@ -9406,7 +9511,9 @@
       <c r="E333" t="s" s="0">
         <v>332</v>
       </c>
-      <c r="F333" s="0"/>
+      <c r="F333" t="s" s="0">
+        <v>782</v>
+      </c>
     </row>
     <row r="334">
       <c r="A334" t="s" s="0">
@@ -9424,6 +9531,9 @@
       <c r="E334" t="s" s="0">
         <v>334</v>
       </c>
+      <c r="F334" t="s" s="0">
+        <v>783</v>
+      </c>
     </row>
     <row r="335">
       <c r="A335" t="s" s="0">
@@ -9441,6 +9551,9 @@
       <c r="E335" t="s" s="0">
         <v>8</v>
       </c>
+      <c r="F335" t="s" s="0">
+        <v>783</v>
+      </c>
     </row>
     <row r="336">
       <c r="A336" t="s" s="0">
@@ -9458,6 +9571,9 @@
       <c r="E336" t="s" s="0">
         <v>8</v>
       </c>
+      <c r="F336" t="s" s="0">
+        <v>784</v>
+      </c>
     </row>
     <row r="337">
       <c r="A337" t="s" s="0">
@@ -9475,6 +9591,9 @@
       <c r="E337" t="s" s="0">
         <v>8</v>
       </c>
+      <c r="F337" t="s" s="0">
+        <v>784</v>
+      </c>
     </row>
     <row r="338">
       <c r="A338" t="s" s="0">
@@ -9492,6 +9611,9 @@
       <c r="E338" t="s" s="0">
         <v>8</v>
       </c>
+      <c r="F338" t="s" s="0">
+        <v>787</v>
+      </c>
     </row>
     <row r="339">
       <c r="A339" t="s" s="0">
@@ -9509,6 +9631,9 @@
       <c r="E339" t="s" s="0">
         <v>340</v>
       </c>
+      <c r="F339" t="s" s="0">
+        <v>788</v>
+      </c>
     </row>
     <row r="340">
       <c r="A340" t="s" s="0">
@@ -9526,6 +9651,9 @@
       <c r="E340" t="s" s="0">
         <v>342</v>
       </c>
+      <c r="F340" t="s" s="0">
+        <v>789</v>
+      </c>
     </row>
     <row r="341">
       <c r="A341" t="s" s="0">
@@ -9543,6 +9671,9 @@
       <c r="E341" t="s" s="0">
         <v>344</v>
       </c>
+      <c r="F341" t="s" s="0">
+        <v>789</v>
+      </c>
     </row>
     <row r="342">
       <c r="A342" t="s" s="0">
@@ -9560,6 +9691,9 @@
       <c r="E342" t="s" s="0">
         <v>346</v>
       </c>
+      <c r="F342" t="s" s="0">
+        <v>790</v>
+      </c>
     </row>
     <row r="343">
       <c r="A343" t="s" s="0">
@@ -9577,6 +9711,7 @@
       <c r="E343" t="s" s="0">
         <v>348</v>
       </c>
+      <c r="F343" s="0"/>
     </row>
     <row r="344">
       <c r="A344" t="s" s="0">
@@ -14535,6 +14670,9 @@
       <c r="C635" t="s" s="0">
         <v>17</v>
       </c>
+      <c r="D635" t="s" s="0">
+        <v>18</v>
+      </c>
       <c r="E635" t="s" s="0">
         <v>769</v>
       </c>
@@ -14549,8 +14687,413 @@
       <c r="C636" t="s" s="0">
         <v>17</v>
       </c>
+      <c r="D636" t="s" s="0">
+        <v>18</v>
+      </c>
       <c r="E636" t="s" s="0">
         <v>771</v>
+      </c>
+    </row>
+    <row r="637">
+      <c r="A637" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="B637" t="s" s="0">
+        <v>772</v>
+      </c>
+      <c r="C637" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="D637" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="E637" t="s" s="0">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="638">
+      <c r="A638" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="B638" t="s" s="0">
+        <v>774</v>
+      </c>
+      <c r="C638" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="D638" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="E638" t="s" s="0">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="639">
+      <c r="A639" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="B639" t="s" s="0">
+        <v>776</v>
+      </c>
+      <c r="C639" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="D639" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="E639" t="s" s="0">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="640">
+      <c r="A640" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="B640" t="s" s="0">
+        <v>778</v>
+      </c>
+      <c r="C640" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="D640" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="E640" t="s" s="0">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="641">
+      <c r="A641" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="B641" t="s" s="0">
+        <v>780</v>
+      </c>
+      <c r="C641" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="D641" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="E641" t="s" s="0">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="642">
+      <c r="A642" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="B642" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="C642" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="D642" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="E642" t="s" s="0">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="643">
+      <c r="A643" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="B643" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="C643" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="D643" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="E643" t="s" s="0">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="644">
+      <c r="A644" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="B644" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="C644" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="D644" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="E644" t="s" s="0">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="645">
+      <c r="A645" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="B645" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="C645" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="D645" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="E645" t="s" s="0">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="646">
+      <c r="A646" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="B646" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="C646" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="D646" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="E646" t="s" s="0">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="647">
+      <c r="A647" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="B647" t="s" s="0">
+        <v>785</v>
+      </c>
+      <c r="C647" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="D647" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="E647" t="s" s="0">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="648">
+      <c r="A648" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="B648" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="C648" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="D648" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="E648" t="s" s="0">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="649">
+      <c r="A649" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="B649" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="C649" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="D649" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="E649" t="s" s="0">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="650">
+      <c r="A650" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="B650" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="C650" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="D650" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="E650" t="s" s="0">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="651">
+      <c r="A651" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="B651" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="C651" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="D651" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="E651" t="s" s="0">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="652">
+      <c r="A652" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="B652" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="C652" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="D652" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="E652" t="s" s="0">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="653">
+      <c r="A653" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="B653" t="s" s="0">
+        <v>791</v>
+      </c>
+      <c r="C653" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="D653" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="E653" t="s" s="0">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="654">
+      <c r="A654" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="B654" t="s" s="0">
+        <v>793</v>
+      </c>
+      <c r="C654" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="D654" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="E654" t="s" s="0">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="655">
+      <c r="A655" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="B655" t="s" s="0">
+        <v>795</v>
+      </c>
+      <c r="C655" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="D655" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="E655" t="s" s="0">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="656">
+      <c r="A656" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="B656" t="s" s="0">
+        <v>797</v>
+      </c>
+      <c r="C656" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="D656" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="E656" t="s" s="0">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="657">
+      <c r="A657" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="B657" t="s" s="0">
+        <v>799</v>
+      </c>
+      <c r="C657" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="D657" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="E657" t="s" s="0">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="658">
+      <c r="A658" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="B658" t="s" s="0">
+        <v>801</v>
+      </c>
+      <c r="C658" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="D658" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="E658" t="s" s="0">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="659">
+      <c r="A659" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="B659" t="s" s="0">
+        <v>803</v>
+      </c>
+      <c r="C659" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="E659" t="s" s="0">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="660">
+      <c r="A660" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="B660" t="s" s="0">
+        <v>805</v>
+      </c>
+      <c r="C660" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="E660" t="s" s="0">
+        <v>806</v>
       </c>
     </row>
   </sheetData>

--- a/TestResult/BookingOutput.xlsx
+++ b/TestResult/BookingOutput.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3641" uniqueCount="807">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3823" uniqueCount="856">
   <si>
     <t>TestCaseNo</t>
   </si>
@@ -2455,6 +2455,153 @@
   </si>
   <si>
     <t>54ce1b25-4390-427a-b9c9-354a7cff377e</t>
+  </si>
+  <si>
+    <t>ZA12580363</t>
+  </si>
+  <si>
+    <t>62d083e5-c481-4995-b365-693246a1aee2</t>
+  </si>
+  <si>
+    <t>ZA12580376</t>
+  </si>
+  <si>
+    <t>5f8224a6-298e-4020-a14c-02414e28e247</t>
+  </si>
+  <si>
+    <t>ZA12580383</t>
+  </si>
+  <si>
+    <t>90c84593-b6b0-473b-987e-cadc69c967fc</t>
+  </si>
+  <si>
+    <t>15:29:55</t>
+  </si>
+  <si>
+    <t>15:29:57</t>
+  </si>
+  <si>
+    <t>15:29:58</t>
+  </si>
+  <si>
+    <t>15:32:49</t>
+  </si>
+  <si>
+    <t>15:32:51</t>
+  </si>
+  <si>
+    <t>15:56:55</t>
+  </si>
+  <si>
+    <t>15:57:02</t>
+  </si>
+  <si>
+    <t>15:57:04</t>
+  </si>
+  <si>
+    <t>ZA12590999</t>
+  </si>
+  <si>
+    <t>8e93d771-f692-4bce-bda8-b82ad876378e</t>
+  </si>
+  <si>
+    <t>ZA12591021</t>
+  </si>
+  <si>
+    <t>f4dc73c5-5626-453f-8580-4d85f76c8ef5</t>
+  </si>
+  <si>
+    <t>ZA12591036</t>
+  </si>
+  <si>
+    <t>66c11f4e-de89-4ad6-957f-cfbcd31f93bf</t>
+  </si>
+  <si>
+    <t>ZA12591044</t>
+  </si>
+  <si>
+    <t>7f1600a1-3125-4af2-a06f-16a2df6c6af0</t>
+  </si>
+  <si>
+    <t>ZA12591049</t>
+  </si>
+  <si>
+    <t>33d89878-1fd1-40c4-bec7-1325a2333c52</t>
+  </si>
+  <si>
+    <t>ZA12591058</t>
+  </si>
+  <si>
+    <t>fb0f0bb4-1bc5-44f8-9a9a-9bb286438d11</t>
+  </si>
+  <si>
+    <t>17:09:52</t>
+  </si>
+  <si>
+    <t>17:09:54</t>
+  </si>
+  <si>
+    <t>17:09:55</t>
+  </si>
+  <si>
+    <t>17:09:56</t>
+  </si>
+  <si>
+    <t>NG12591099</t>
+  </si>
+  <si>
+    <t>9e3d49c0-1dfa-4c6e-b347-dac11fcb7528</t>
+  </si>
+  <si>
+    <t>NG12591109</t>
+  </si>
+  <si>
+    <t>8bb7403e-740e-4f74-a11c-b9c4453f0389</t>
+  </si>
+  <si>
+    <t>NG12591116</t>
+  </si>
+  <si>
+    <t>86c5ecdb-993a-4e26-8bfa-b4410d3c2fb2</t>
+  </si>
+  <si>
+    <t>ZA00109536</t>
+  </si>
+  <si>
+    <t>3bfa3cbc-d542-4785-ad6f-3b76da7be95b</t>
+  </si>
+  <si>
+    <t>ZA00109537</t>
+  </si>
+  <si>
+    <t>310e573a-c70a-4c91-9035-d0e3435d24b7</t>
+  </si>
+  <si>
+    <t>ZA00109538</t>
+  </si>
+  <si>
+    <t>7a5af4b3-b367-42e2-bdd8-4fe80a88fe92</t>
+  </si>
+  <si>
+    <t>ZA00109539</t>
+  </si>
+  <si>
+    <t>39c60eba-2979-4e27-a883-f0eefffff3a0</t>
+  </si>
+  <si>
+    <t>15:36:24</t>
+  </si>
+  <si>
+    <t>7dbc8555-20a8-40ec-9a05-9a95479a665f</t>
+  </si>
+  <si>
+    <t>15:37:09</t>
+  </si>
+  <si>
+    <t>1dab8b91-acd2-498d-a17c-054839bc1afd</t>
+  </si>
+  <si>
+    <t>ZA00109624</t>
   </si>
 </sst>
 </file>
@@ -2837,7 +2984,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F84E5F12-E39D-4679-9700-19497A69F720}">
-  <dimension ref="A1:G660"/>
+  <dimension ref="A1:G694"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D18" sqref="D18"/>
@@ -9711,7 +9858,9 @@
       <c r="E343" t="s" s="0">
         <v>348</v>
       </c>
-      <c r="F343" s="0"/>
+      <c r="F343" t="s" s="0">
+        <v>813</v>
+      </c>
     </row>
     <row r="344">
       <c r="A344" t="s" s="0">
@@ -9729,6 +9878,9 @@
       <c r="E344" t="s" s="0">
         <v>350</v>
       </c>
+      <c r="F344" t="s" s="0">
+        <v>814</v>
+      </c>
     </row>
     <row r="345">
       <c r="A345" t="s" s="0">
@@ -9746,6 +9898,9 @@
       <c r="E345" t="s" s="0">
         <v>352</v>
       </c>
+      <c r="F345" t="s" s="0">
+        <v>815</v>
+      </c>
     </row>
     <row r="346">
       <c r="A346" t="s" s="0">
@@ -9763,6 +9918,9 @@
       <c r="E346" t="s" s="0">
         <v>353</v>
       </c>
+      <c r="F346" t="s" s="0">
+        <v>816</v>
+      </c>
     </row>
     <row r="347">
       <c r="A347" t="s" s="0">
@@ -9780,6 +9938,9 @@
       <c r="E347" t="s" s="0">
         <v>354</v>
       </c>
+      <c r="F347" t="s" s="0">
+        <v>817</v>
+      </c>
     </row>
     <row r="348">
       <c r="A348" t="s" s="0">
@@ -9797,6 +9958,9 @@
       <c r="E348" t="s" s="0">
         <v>8</v>
       </c>
+      <c r="F348" t="s" s="0">
+        <v>817</v>
+      </c>
     </row>
     <row r="349">
       <c r="A349" t="s" s="0">
@@ -9814,6 +9978,9 @@
       <c r="E349" t="s" s="0">
         <v>8</v>
       </c>
+      <c r="F349" t="s" s="0">
+        <v>818</v>
+      </c>
     </row>
     <row r="350">
       <c r="A350" t="s" s="0">
@@ -9831,6 +9998,9 @@
       <c r="E350" t="s" s="0">
         <v>8</v>
       </c>
+      <c r="F350" t="s" s="0">
+        <v>819</v>
+      </c>
     </row>
     <row r="351">
       <c r="A351" t="s" s="0">
@@ -9848,6 +10018,9 @@
       <c r="E351" t="s" s="0">
         <v>8</v>
       </c>
+      <c r="F351" t="s" s="0">
+        <v>820</v>
+      </c>
     </row>
     <row r="352">
       <c r="A352" t="s" s="0">
@@ -9865,6 +10038,9 @@
       <c r="E352" t="s" s="0">
         <v>359</v>
       </c>
+      <c r="F352" t="s" s="0">
+        <v>833</v>
+      </c>
     </row>
     <row r="353">
       <c r="A353" t="s" s="0">
@@ -9882,6 +10058,9 @@
       <c r="E353" t="s" s="0">
         <v>8</v>
       </c>
+      <c r="F353" t="s" s="0">
+        <v>834</v>
+      </c>
     </row>
     <row r="354">
       <c r="A354" t="s" s="0">
@@ -9899,6 +10078,9 @@
       <c r="E354" t="s" s="0">
         <v>8</v>
       </c>
+      <c r="F354" t="s" s="0">
+        <v>835</v>
+      </c>
     </row>
     <row r="355">
       <c r="A355" t="s" s="0">
@@ -9916,6 +10098,9 @@
       <c r="E355" t="s" s="0">
         <v>8</v>
       </c>
+      <c r="F355" t="s" s="0">
+        <v>836</v>
+      </c>
     </row>
     <row r="356">
       <c r="A356" t="s" s="0">
@@ -9933,6 +10118,9 @@
       <c r="E356" t="s" s="0">
         <v>8</v>
       </c>
+      <c r="F356" t="s" s="0">
+        <v>851</v>
+      </c>
     </row>
     <row r="357">
       <c r="A357" t="s" s="0">
@@ -9950,6 +10138,9 @@
       <c r="E357" t="s" s="0">
         <v>364</v>
       </c>
+      <c r="F357" t="s" s="0">
+        <v>853</v>
+      </c>
     </row>
     <row r="358">
       <c r="A358" t="s" s="0">
@@ -9967,6 +10158,7 @@
       <c r="E358" t="s" s="0">
         <v>366</v>
       </c>
+      <c r="F358" s="0"/>
     </row>
     <row r="359">
       <c r="A359" t="s" s="0">
@@ -15078,6 +15270,9 @@
       <c r="C659" t="s" s="0">
         <v>17</v>
       </c>
+      <c r="D659" t="s" s="0">
+        <v>18</v>
+      </c>
       <c r="E659" t="s" s="0">
         <v>804</v>
       </c>
@@ -15092,8 +15287,574 @@
       <c r="C660" t="s" s="0">
         <v>17</v>
       </c>
+      <c r="D660" t="s" s="0">
+        <v>18</v>
+      </c>
       <c r="E660" t="s" s="0">
         <v>806</v>
+      </c>
+    </row>
+    <row r="661">
+      <c r="A661" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="B661" t="s" s="0">
+        <v>807</v>
+      </c>
+      <c r="C661" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="D661" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="E661" t="s" s="0">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="662">
+      <c r="A662" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="B662" t="s" s="0">
+        <v>809</v>
+      </c>
+      <c r="C662" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="D662" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="E662" t="s" s="0">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="663">
+      <c r="A663" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="B663" t="s" s="0">
+        <v>811</v>
+      </c>
+      <c r="C663" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="D663" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="E663" t="s" s="0">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="664">
+      <c r="A664" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="B664" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="C664" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="D664" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="E664" t="s" s="0">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="665">
+      <c r="A665" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="B665" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="C665" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="D665" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="E665" t="s" s="0">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="666">
+      <c r="A666" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="B666" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="C666" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="D666" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="E666" t="s" s="0">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="667">
+      <c r="A667" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="B667" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="C667" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="D667" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="E667" t="s" s="0">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="668">
+      <c r="A668" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="B668" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="C668" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="D668" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="E668" t="s" s="0">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="669">
+      <c r="A669" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="B669" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="C669" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="D669" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="E669" t="s" s="0">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="670">
+      <c r="A670" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="B670" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="C670" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="D670" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="E670" t="s" s="0">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="671">
+      <c r="A671" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="B671" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="C671" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="D671" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="E671" t="s" s="0">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="672">
+      <c r="A672" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="B672" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="C672" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="D672" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="E672" t="s" s="0">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="673">
+      <c r="A673" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="B673" t="s" s="0">
+        <v>821</v>
+      </c>
+      <c r="C673" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="D673" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="E673" t="s" s="0">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="674">
+      <c r="A674" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="B674" t="s" s="0">
+        <v>823</v>
+      </c>
+      <c r="C674" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="D674" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="E674" t="s" s="0">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="675">
+      <c r="A675" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="B675" t="s" s="0">
+        <v>825</v>
+      </c>
+      <c r="C675" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="D675" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="E675" t="s" s="0">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="676">
+      <c r="A676" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="B676" t="s" s="0">
+        <v>827</v>
+      </c>
+      <c r="C676" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="D676" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="E676" t="s" s="0">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="677">
+      <c r="A677" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="B677" t="s" s="0">
+        <v>829</v>
+      </c>
+      <c r="C677" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="D677" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="E677" t="s" s="0">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="678">
+      <c r="A678" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="B678" t="s" s="0">
+        <v>831</v>
+      </c>
+      <c r="C678" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="D678" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="E678" t="s" s="0">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="679">
+      <c r="A679" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="B679" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="C679" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="D679" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="E679" t="s" s="0">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="680">
+      <c r="A680" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="B680" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="C680" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="D680" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="E680" t="s" s="0">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="681">
+      <c r="A681" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="B681" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="C681" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="D681" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="E681" t="s" s="0">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="682">
+      <c r="A682" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="B682" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="C682" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="D682" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="E682" t="s" s="0">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="683">
+      <c r="A683" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="B683" t="s" s="0">
+        <v>837</v>
+      </c>
+      <c r="C683" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="D683" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="E683" t="s" s="0">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="684">
+      <c r="A684" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="B684" t="s" s="0">
+        <v>839</v>
+      </c>
+      <c r="C684" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="D684" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="E684" t="s" s="0">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="685">
+      <c r="A685" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="B685" t="s" s="0">
+        <v>841</v>
+      </c>
+      <c r="C685" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="D685" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="E685" t="s" s="0">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="686">
+      <c r="A686" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="B686" t="s" s="0">
+        <v>843</v>
+      </c>
+      <c r="C686" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="D686" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="E686" t="s" s="0">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="687">
+      <c r="A687" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="B687" t="s" s="0">
+        <v>845</v>
+      </c>
+      <c r="C687" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="D687" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="E687" t="s" s="0">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="688">
+      <c r="A688" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="B688" t="s" s="0">
+        <v>847</v>
+      </c>
+      <c r="C688" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="D688" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="E688" t="s" s="0">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="689">
+      <c r="A689" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="B689" t="s" s="0">
+        <v>849</v>
+      </c>
+      <c r="C689" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="D689" t="s" s="0">
+        <v>71</v>
+      </c>
+      <c r="E689" t="s" s="0">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="690">
+      <c r="A690" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="B690" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="C690" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="D690" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="E690" t="s" s="0">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="691">
+      <c r="A691" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="B691" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="C691" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="D691" t="s" s="0">
+        <v>71</v>
+      </c>
+      <c r="E691" t="s" s="0">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="692">
+      <c r="A692" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="B692" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="C692" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="E692" t="s" s="0">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="693">
+      <c r="A693" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="B693" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="C693" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="E693" t="s" s="0">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="694">
+      <c r="A694" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="B694" t="s" s="0">
+        <v>855</v>
       </c>
     </row>
   </sheetData>
